--- a/Documentação Apoio/Cronograma.xlsx
+++ b/Documentação Apoio/Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>Plano de Configuração.docx</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos</t>
+  </si>
+  <si>
+    <t>Levantar e Elicitar os Requisitos</t>
+  </si>
+  <si>
+    <t>Especificação de Requisitos.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise de Inconsistência </t>
+  </si>
+  <si>
+    <t>Analisar Incosistencia nos Requisitos</t>
+  </si>
+  <si>
+    <t>Checklist Inconsistência.docx</t>
+  </si>
+  <si>
+    <t>Rastreabilidade</t>
+  </si>
+  <si>
+    <t>Criar Rastreabilidade dos Requisitos</t>
+  </si>
+  <si>
+    <t>Rastreabilidade de Requisitos..xlsx</t>
   </si>
 </sst>
 </file>
@@ -98,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +137,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -395,7 +425,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +434,7 @@
     <col min="2" max="2" width="32.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -435,18 +465,62 @@
         <v>43050</v>
       </c>
       <c r="D2" s="4">
-        <v>43081</v>
+        <v>43051</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43049</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43053</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43053</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43054</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43054</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43054</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Documentação Apoio/Cronograma.xlsx
+++ b/Documentação Apoio/Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Rastreabilidade de Requisitos..xlsx</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL</t>
+  </si>
+  <si>
+    <t>Gerente de Configuração (Matheus F.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerente de Requisitos (Rogério A.), Analistas (Luiz E. , Thiago N.) </t>
+  </si>
+  <si>
+    <t>Gerente de Requisitos (Rogério A.)</t>
+  </si>
+  <si>
+    <t>Gerente de Requisitos (Rogério A.), Analistas (Luiz E. , Thiago N.)</t>
   </si>
 </sst>
 </file>
@@ -422,22 +437,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -445,110 +461,129 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4">
         <v>43050</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>43051</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>43049</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>43053</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
         <v>43053</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>43054</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
-        <v>43054</v>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="5">
         <v>43054</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5">
+        <v>43054</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
